--- a/Joe-Lamp-Design/Joe_readMe_example.xlsx
+++ b/Joe-Lamp-Design/Joe_readMe_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephmartin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE305CD-5DDB-014D-9FDF-C2E09473C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4E7A47-B71F-914D-BA26-785E89807152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="980" windowWidth="27640" windowHeight="16440" xr2:uid="{A89177E6-ACFD-654D-9C96-E39956538A46}"/>
+    <workbookView xWindow="2080" yWindow="4800" windowWidth="27640" windowHeight="16440" xr2:uid="{A89177E6-ACFD-654D-9C96-E39956538A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -774,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>Design ID:</t>
   </si>
@@ -1097,6 +1097,9 @@
   </si>
   <si>
     <t>For line 3 you'll probably need to trial and error a bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t_offset chosen to keep </t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1618,7 @@
   <dimension ref="A2:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1802,7 +1805,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="e" cm="1">
-        <f t="array" ref="C12">xc + F13 + (( upScale*(2* (1 + SIN(6*-t_offset*pi_2))^(0.5) + 10 + 0.38*SIN(72*6*-t_offset*pi_2) + 5*SIN((Zval)/maxZ/upScale*PI()) + 1*SIN((Zval)/maxZ/upScale*7.5*PI()))-0.1-ri)*(1-Tval))</f>
+        <f t="array" ref="C12">xc + ri+0.5*LH + (( upScale*(2* (1 + SIN(6*-t_offset*pi_2))^(0.5) + 10 + 0.38*SIN(72*6*-t_offset*pi_2) + 5*SIN((Zval)/maxZ/upScale*PI()) + 1*SIN((Zval)/maxZ/upScale*7.5*PI()))-0.1-ri)*(1-Tval))</f>
         <v>#NAME?</v>
       </c>
       <c r="D12" s="3" t="e" cm="1">
@@ -1838,7 +1841,9 @@
       <c r="P12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="S12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1867,9 +1872,9 @@
       <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="F13" s="10">
-        <f>ri+0.5*K13</f>
-        <v>0.24</v>
+      <c r="F13" s="10" t="e">
+        <f>C12</f>
+        <v>#NAME?</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
@@ -1886,8 +1891,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="10">
-        <f>0.4*FrameWidthFactor</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="10">
         <f>LH</f>

--- a/Joe-Lamp-Design/Joe_readMe_example.xlsx
+++ b/Joe-Lamp-Design/Joe_readMe_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephmartin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4E7A47-B71F-914D-BA26-785E89807152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE7587F-478C-A843-BF13-A8EB60617C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="4800" windowWidth="27640" windowHeight="16440" xr2:uid="{A89177E6-ACFD-654D-9C96-E39956538A46}"/>
+    <workbookView xWindow="1040" yWindow="1320" windowWidth="27640" windowHeight="16440" xr2:uid="{A89177E6-ACFD-654D-9C96-E39956538A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   <definedNames>
     <definedName name="FrameLineSpacingRatio">Sheet1!$T$48</definedName>
     <definedName name="FrameWidthFactor">Sheet1!$T$49</definedName>
+    <definedName name="holder_layers">Sheet1!$T$47</definedName>
     <definedName name="LH">Sheet1!$T$50</definedName>
     <definedName name="maxZ">Sheet1!$T$43</definedName>
     <definedName name="pi_2">Sheet1!$T$42</definedName>
@@ -52,7 +53,7 @@
     <author>Andy Gleadall</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{F4FC65A8-9517-0840-9DBB-EFEBA5F3DCB1}">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{C8B3DE88-ECC6-6349-A36B-C8D5F4BFA513}">
       <text>
         <r>
           <rPr>
@@ -105,13 +106,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{1A91D095-476B-E643-AAC9-B76FA3315277}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{65D4C261-7B2F-C44B-A347-92B46D0B00AA}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -120,12 +121,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This must be the exact name of the worksheet where the design will be saved. It is possible to import and export a worksheet (e.g. if you have too many worksheets for different projects, or if you want to share your designs with a collaborator)</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This must be the exact name of the worksheet where the design will be saved. It is possible to import and export a worksheet (e.g. if you have too many worksheets for different projects, or if you want to share your designs with a collaborator)</t>
         </r>
       </text>
     </comment>
@@ -774,12 +784,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
     <t>Design ID:</t>
-  </si>
-  <si>
-    <t>shortened_240mm</t>
   </si>
   <si>
     <t>Save to sheet:</t>
@@ -1100,6 +1107,45 @@
   </si>
   <si>
     <t xml:space="preserve">t_offset chosen to keep </t>
+  </si>
+  <si>
+    <t>note this sheet doesn't have the parameters programmed in so some cells say zero or have the wrong calculation, when programmed in full control gcode it should work better</t>
+  </si>
+  <si>
+    <t>This is for a 6 lobed shape of course</t>
+  </si>
+  <si>
+    <t>this will be the inner ring radius for the holder</t>
+  </si>
+  <si>
+    <t>xcenter</t>
+  </si>
+  <si>
+    <t>ycenter</t>
+  </si>
+  <si>
+    <t>height' in the matlab app</t>
+  </si>
+  <si>
+    <t>Put one of the creases along the positive x axis (important for the holder)</t>
+  </si>
+  <si>
+    <t>test_matlab_lamp_designer2</t>
+  </si>
+  <si>
+    <t>SKIP_Line equation</t>
+  </si>
+  <si>
+    <t>X-formula</t>
+  </si>
+  <si>
+    <t>Y-formula</t>
+  </si>
+  <si>
+    <t>T=?;more?</t>
+  </si>
+  <si>
+    <t>holder_layers</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1301,6 +1347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1615,35 +1662,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC41C85B-E033-AE46-AC07-860B3055B46F}">
-  <dimension ref="A2:U48"/>
+  <dimension ref="A2:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1651,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1681,7 +1733,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U9" s="4"/>
     </row>
@@ -1690,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
         <f>xc</f>
@@ -1701,10 +1753,10 @@
         <v>2.5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="e" cm="1">
-        <f t="array" ref="F10" xml:space="preserve"> upScale*(2* (1 + SIN(6*(Tval-t_offset)*pi_2))^(0.5) + 10 + 0.38*SIN(72*6*(Tval-t_offset)*pi_2) + 5*SIN((Zval)/maxZ/upScale*PI()) + 1*SIN((Zval)/maxZ/upScale*7.5*PI()))</f>
+        <f t="array" ref="F10" xml:space="preserve"> upScale*(1.2399* (1 + SIN(6*(Tval-t_offset)*pi_2))^(0.5) + 2.9624 + 0.053142*SIN(100*6*(Tval-t_offset)*pi_2) + 1.2603*SIN((Zval)/maxZ/upScale*PI() -0) + 0.1*SIN((Zval)/maxZ/upScale*7.5*PI()-3.1367))</f>
         <v>#NAME?</v>
       </c>
       <c r="G10" s="3">
@@ -1732,7 +1784,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="S10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="8"/>
@@ -1742,70 +1794,70 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="S11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T11" s="8">
         <v>0.2</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>26</v>
+      <c r="B12" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="e" cm="1">
-        <f t="array" ref="C12">xc + ri+0.5*LH + (( upScale*(2* (1 + SIN(6*-t_offset*pi_2))^(0.5) + 10 + 0.38*SIN(72*6*-t_offset*pi_2) + 5*SIN((Zval)/maxZ/upScale*PI()) + 1*SIN((Zval)/maxZ/upScale*7.5*PI()))-0.1-ri)*(1-Tval))</f>
+        <f t="array" ref="C12">xc + ri+0.5*LH + (( upScale*(1.2399* (1 + SIN(6*(0-t_offset)*pi_2))^(0.5) + 2.9624 + 0.053142*SIN(100*6*(0-t_offset)*pi_2) + 1.2603*SIN((Zval)/maxZ/upScale*PI() -0) + 0.1*SIN((Zval)/maxZ/upScale*7.5*PI()-3.1367))-0.1-ri)*(1-Tval))</f>
         <v>#NAME?</v>
       </c>
       <c r="D12" s="3" t="e" cm="1">
@@ -1836,22 +1888,22 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="T12" s="8">
         <v>1</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1859,7 +1911,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="10">
         <f>xc</f>
@@ -1872,9 +1924,9 @@
       <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="F13" s="10" t="e">
-        <f>C12</f>
-        <v>#NAME?</v>
+      <c r="F13" s="10">
+        <f>ri+0.5*LH</f>
+        <v>0.24</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
@@ -1884,14 +1936,15 @@
         <v>30</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="10">
         <f>FLOOR(H13,1)</f>
         <v>30</v>
       </c>
       <c r="K13" s="10">
-        <v>1</v>
+        <f>0.4*FrameWidthFactor</f>
+        <v>4</v>
       </c>
       <c r="L13" s="10">
         <f>LH</f>
@@ -1901,15 +1954,17 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="S13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T13" s="8">
         <v>1</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1917,13 +1972,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="10">
         <f>xc</f>
@@ -1948,10 +2003,10 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="S14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="U14" s="8"/>
     </row>
@@ -1960,10 +2015,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D15" s="10">
         <v>100</v>
@@ -1992,7 +2047,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="S15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T15" s="8">
         <v>0</v>
@@ -2004,14 +2059,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <f>ROUND(39.75*upScale/0.24-1,0)</f>
-        <v>3808</v>
+        <f>ROUND(maxZ*upScale/0.24-1,0)</f>
+        <v>832</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2041,14 +2096,15 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3">
-        <v>10</v>
+      <c r="D17" s="3" cm="1">
+        <f t="array" ref="D17" xml:space="preserve"> holder_layers</f>
+        <v>0.24</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2071,21 +2127,21 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="S17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T17" s="15">
         <v>60</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
+      <c r="B18" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <f>xc</f>
@@ -2096,14 +2152,14 @@
         <v>2.5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1" t="e" cm="1">
-        <f t="array" ref="F18" xml:space="preserve"> upScale*(2* (1 + SIN(6*(Tval-t_offset)*pi_2))^(0.5) + 10 + 0.38*SIN(72*6*(Tval-t_offset)*pi_2) + 5*SIN((Zval)/maxZ/upScale*PI()) + 1*SIN((Zval)/maxZ/upScale*7.5*PI()))</f>
+        <f t="array" ref="F18" xml:space="preserve"> upScale*(1.2399* (1 + SIN(6*(Tval-t_offset)*pi_2))^(0.5) + 2.9624 + 0.053142*SIN(100*6*(Tval-t_offset)*pi_2) + 1.2603*SIN((Zval)/maxZ/upScale*PI() -0) + 0.1*SIN((Zval)/maxZ/upScale*7.5*PI()-3.1367))</f>
         <v>#NAME?</v>
       </c>
       <c r="G18" s="3">
-        <f>(D17+1)*G17</f>
+        <f>(holder_layers+1)*LH</f>
         <v>0</v>
       </c>
       <c r="H18" s="3">
@@ -2128,13 +2184,13 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="S18" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T18" s="8">
         <v>1000</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2142,14 +2198,14 @@
         <v>10</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3">
-        <f>D16-D17-2</f>
-        <v>3796</v>
+        <f>ROUND(maxZ*upScale/0.24-1,0)-holder_layers-2</f>
+        <v>829.76</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2172,13 +2228,13 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="S19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T19" s="8">
         <v>9000</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2186,57 +2242,57 @@
         <v>11</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="S20" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T20" s="17">
         <v>210</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2244,42 +2300,57 @@
         <v>12</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3">
+        <v>110</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <f>LH</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="S21" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T21" s="17">
         <v>1.75</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2303,13 +2374,13 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="S22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="T22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -2333,10 +2404,10 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="S23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="T23" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="U23" s="8"/>
     </row>
@@ -2361,49 +2432,49 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="S24" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="S25" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T25" s="8">
         <v>20</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="S26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T26" s="8">
         <v>10</v>
       </c>
       <c r="U26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="S27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T27" s="8">
         <v>0.3</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="S28" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T28" s="8">
         <v>0</v>
@@ -2412,132 +2483,135 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="S29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="U29" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="S30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T30" s="8">
         <v>5</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="S31" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T31" s="8">
         <v>7</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="S32" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T32" s="8">
         <v>2500</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="S33" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T33" s="8">
         <f>-T31</f>
         <v>-7</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="S34" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T34" s="7">
         <f>T32</f>
         <v>2500</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="S35" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T35" s="7">
         <v>0.2</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="S36" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T36" s="7">
         <v>7500</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="S38" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="T38" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="T38" s="19" t="s">
+      <c r="U38" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="U38" s="20" t="s">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S39" s="21" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="S39" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="T39" s="21">
         <f>2*PI()</f>
         <v>6.2831853071795862</v>
       </c>
       <c r="U39" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S40" s="21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="S40" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="T40" s="21">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="U40" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="V40" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -2557,14 +2631,14 @@
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
       <c r="S41" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T41" s="23">
         <v>4</v>
       </c>
       <c r="U41" s="23"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -2584,14 +2658,17 @@
       <c r="Q42" s="23"/>
       <c r="R42" s="23"/>
       <c r="S42" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T42" s="23">
         <v>100</v>
       </c>
       <c r="U42" s="23"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -2611,14 +2688,17 @@
       <c r="Q43" s="23"/>
       <c r="R43" s="23"/>
       <c r="S43" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T43" s="23">
         <v>100</v>
       </c>
       <c r="U43" s="23"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -2638,14 +2718,17 @@
       <c r="Q44" s="23"/>
       <c r="R44" s="23"/>
       <c r="S44" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T44" s="23">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="U44" s="23"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -2665,14 +2748,14 @@
       <c r="Q45" s="23"/>
       <c r="R45" s="23"/>
       <c r="S45" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T45" s="21">
         <v>0.2</v>
       </c>
       <c r="U45" s="23"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -2692,14 +2775,14 @@
       <c r="Q46" s="23"/>
       <c r="R46" s="23"/>
       <c r="S46" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T46" s="21">
         <v>2.5</v>
       </c>
       <c r="U46" s="23"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -2719,14 +2802,14 @@
       <c r="Q47" s="23"/>
       <c r="R47" s="23"/>
       <c r="S47" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T47" s="23">
         <v>0.24</v>
       </c>
       <c r="U47" s="23"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -2746,12 +2829,23 @@
       <c r="Q48" s="23"/>
       <c r="R48" s="23"/>
       <c r="S48" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T48" s="23">
-        <v>4.2299999999999997E-2</v>
+        <v>1.85</v>
       </c>
       <c r="U48" s="23"/>
+      <c r="V48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S49" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="T49" s="23">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
